--- a/TestData/RegisterCandidate.xlsx
+++ b/TestData/RegisterCandidate.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15555" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>ACL_TD1</t>
   </si>
@@ -30,9 +31,6 @@
     <t>EmailID</t>
   </si>
   <si>
-    <t>ContactNumber</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -75,36 +73,6 @@
     <t>ase</t>
   </si>
   <si>
-    <t>lectusis@velquam.edu</t>
-  </si>
-  <si>
-    <t>Nullam@eudui.edu</t>
-  </si>
-  <si>
-    <t>pulvinar@Inornare.ca</t>
-  </si>
-  <si>
-    <t>ProinNulla@etmagnis.net</t>
-  </si>
-  <si>
-    <t>risus@Cumsoci.edu</t>
-  </si>
-  <si>
-    <t>Class@Nullam.edu</t>
-  </si>
-  <si>
-    <t>etpede@placerat.org</t>
-  </si>
-  <si>
-    <t>bendum@habitant.net</t>
-  </si>
-  <si>
-    <t>malesua@duiquis.org</t>
-  </si>
-  <si>
-    <t>ante@rhocus.com</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
@@ -160,13 +128,76 @@
   </si>
   <si>
     <t>smith</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>1992342396</t>
+  </si>
+  <si>
+    <t>1992342388</t>
+  </si>
+  <si>
+    <t>1992342389</t>
+  </si>
+  <si>
+    <t>1992342390</t>
+  </si>
+  <si>
+    <t>1992342391</t>
+  </si>
+  <si>
+    <t>1992342392</t>
+  </si>
+  <si>
+    <t>1992342393</t>
+  </si>
+  <si>
+    <t>1992342394</t>
+  </si>
+  <si>
+    <t>1992342395</t>
+  </si>
+  <si>
+    <t>1992342387</t>
+  </si>
+  <si>
+    <t>Suman@habitauu.net</t>
+  </si>
+  <si>
+    <t>Atish@duiquyu.org</t>
+  </si>
+  <si>
+    <t>Toha@placerat.org</t>
+  </si>
+  <si>
+    <t>Jesi@Nullam.edu</t>
+  </si>
+  <si>
+    <t>Abhi@Cumsoci.edu</t>
+  </si>
+  <si>
+    <t>Nita@etmagnis.net</t>
+  </si>
+  <si>
+    <t>Tina@velquam.edu</t>
+  </si>
+  <si>
+    <t>Rita@eudui.edu</t>
+  </si>
+  <si>
+    <t>Akurti@Inornare.ca</t>
+  </si>
+  <si>
+    <t>Sara@Sara.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -253,6 +284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -343,7 +376,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -378,7 +410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,24 +585,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,14 +615,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -601,245 +632,235 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4">
-        <v>1874830776</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1336847227</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1945554824</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1970928154</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1582956690</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1935429536</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1516729363</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1699653642</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1947144596</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1667282655</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -880,24 +901,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
